--- a/biology/Zoologie/Ikeda_(genre)/Ikeda_(genre).xlsx
+++ b/biology/Zoologie/Ikeda_(genre)/Ikeda_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ikeda est un genre de vers marins échiuriens, le seul de la famille des Ikedidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (5 janvier 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (5 janvier 2019) :
 Ikeda pirotansis (Menon &amp; DattaGupta, 1962)
 Ikeda taenioides (Ikeda, 1904)</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Ikeda a été choisi en l'honneur d'Iwaji Ikeda (1872-1922), zoologiste japonais[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Ikeda a été choisi en l'honneur d'Iwaji Ikeda (1872-1922), zoologiste japonais. 
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bock, 1942 : On the structure and affinities of "Thalassema" lankesteri Herdman and the classification of the group Echiuroidea. Göteborgs Kungliga Vetenskaps- och Vitterhets-Samhälles Handlingar, Sjätte följden, sér. B, vol. 2, n. 6, pp. 1–94 ([Lien texte intégral/introduction]) (en).
 Wharton, 1913 : A description of some Philippine Thalassemae with a revision of the genus.  The Philippine Journal of Science, vol. 8, n. 4, pp. 243-270 (texte intégral) (en).</t>
